--- a/InputData/ccs/CCSTaSC/CCS Transportation and Storage Cost.xlsx
+++ b/InputData/ccs/CCSTaSC/CCS Transportation and Storage Cost.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CCSTaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB69C57-C5D6-459F-AF6B-9308998FBC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{2BB69C57-C5D6-459F-AF6B-9308998FBC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4A7311-81C2-4D50-8523-48AB168F4FA6}"/>
   <bookViews>
     <workbookView xWindow="-21525" yWindow="2850" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CCSTaSC" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculation" sheetId="5" r:id="rId2"/>
+    <sheet name="CCSTaSC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -25,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,46 +38,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>CCS Transportation and Storage Cost</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Current Value and Infrastructure Investment and Jobs Act Effects</t>
-  </si>
-  <si>
-    <t>Slide 38</t>
-  </si>
-  <si>
-    <t>https://netzeroamerica.princeton.edu/img/Princeton%20NZA%20FINAL%20REPORT%20SUMMARY%20(29Oct2021).pdf</t>
-  </si>
-  <si>
-    <t>Princeton University</t>
-  </si>
-  <si>
-    <t>Net-Zero America: Potential Pathways, Infrastructure, and Impacts</t>
-  </si>
-  <si>
-    <t>CCS Transportation and Storage Cost</t>
+    <t>Global hydrogen review</t>
+  </si>
+  <si>
+    <t>international energy agency (iea)</t>
+  </si>
+  <si>
+    <t>Global Hydrogen Review 2021:</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>page 6</t>
+  </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/2ceb17b8-474f-4154-aab5-4d898f735c17/IEAGHRassumptions_final.pdf#page=6</t>
+  </si>
+  <si>
+    <t>2019 to 2012 $</t>
+  </si>
+  <si>
+    <t>From iea Hydrogen report page 6: CO2 transport and storage cost for CCUS</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>NZE 2030</t>
+  </si>
+  <si>
+    <t>NZE 2050</t>
+  </si>
+  <si>
+    <t>Europe [USD2019/tCO2]</t>
+  </si>
+  <si>
+    <t>Calculation for all years in 2012 $</t>
+  </si>
+  <si>
+    <t>Europe [USD2012/tCO2]</t>
   </si>
   <si>
     <t>Transportation and Storage Cost ($ per metric ton CO2)</t>
-  </si>
-  <si>
-    <t>Value from study (2021 $)</t>
-  </si>
-  <si>
-    <t>2021 to 2012 $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -134,14 +166,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,99 +479,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="5">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60.75">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.84699999999999998</v>
+      <c r="B12" s="8">
+        <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" location="page=6" xr:uid="{B5DA7AA7-A6B7-4363-A101-3BE9A8690BA6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11D304A-B7E6-41D7-84A0-26E98FCCA65F}">
+  <dimension ref="A1:AE10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9">
+        <f>B9+1</f>
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:AE9" si="0">C9+1</f>
+        <v>2023</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B4*About!B12</f>
+        <v>50.291069675385373</v>
+      </c>
+      <c r="C10" s="11">
+        <f>B10-($B$10-$K$10)/9</f>
+        <v>47.996040702103898</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:J10" si="1">C10-($B$10-$K$10)/9</f>
+        <v>45.701011728822422</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
+        <v>43.405982755540947</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>41.110953782259472</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>38.815924808977996</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>36.520895835696521</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
+        <v>34.225866862415046</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>31.930837889133571</v>
+      </c>
+      <c r="K10" s="10">
+        <f>C4*About!B12</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="L10" s="11">
+        <f>K10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:AD10" si="2">L10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="2"/>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AE10" s="10">
+        <f>D4*About!B12</f>
+        <v>29.635808915852095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.140625" customWidth="1"/>
     <col min="2" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="B1">
         <v>2021</v>
       </c>
@@ -627,135 +962,390 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="C2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="D2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="E2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="F2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="G2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="H2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="I2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="J2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="K2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="L2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="M2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="N2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="O2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="P2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Q2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="R2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="S2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="T2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="U2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="V2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="W2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="X2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Y2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Z2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AA2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AB2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AC2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AD2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AE2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9">
+        <f>Calculation!B10</f>
+        <v>50.291069675385373</v>
+      </c>
+      <c r="C2" s="9">
+        <f>Calculation!C10</f>
+        <v>47.996040702103898</v>
+      </c>
+      <c r="D2" s="9">
+        <f>Calculation!D10</f>
+        <v>45.701011728822422</v>
+      </c>
+      <c r="E2" s="9">
+        <f>Calculation!E10</f>
+        <v>43.405982755540947</v>
+      </c>
+      <c r="F2" s="9">
+        <f>Calculation!F10</f>
+        <v>41.110953782259472</v>
+      </c>
+      <c r="G2" s="9">
+        <f>Calculation!G10</f>
+        <v>38.815924808977996</v>
+      </c>
+      <c r="H2" s="9">
+        <f>Calculation!H10</f>
+        <v>36.520895835696521</v>
+      </c>
+      <c r="I2" s="9">
+        <f>Calculation!I10</f>
+        <v>34.225866862415046</v>
+      </c>
+      <c r="J2" s="9">
+        <f>Calculation!J10</f>
+        <v>31.930837889133571</v>
+      </c>
+      <c r="K2" s="9">
+        <f>Calculation!K10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="L2" s="9">
+        <f>Calculation!L10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="M2" s="9">
+        <f>Calculation!M10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="N2" s="9">
+        <f>Calculation!N10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="O2" s="9">
+        <f>Calculation!O10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="P2" s="9">
+        <f>Calculation!P10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>Calculation!Q10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="R2" s="9">
+        <f>Calculation!R10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="S2" s="9">
+        <f>Calculation!S10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="T2" s="9">
+        <f>Calculation!T10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="U2" s="9">
+        <f>Calculation!U10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="V2" s="9">
+        <f>Calculation!V10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="W2" s="9">
+        <f>Calculation!W10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="X2" s="9">
+        <f>Calculation!X10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="Y2" s="9">
+        <f>Calculation!Y10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>Calculation!Z10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AA2" s="9">
+        <f>Calculation!AA10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AB2" s="9">
+        <f>Calculation!AB10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AC2" s="9">
+        <f>Calculation!AC10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AD2" s="9">
+        <f>Calculation!AD10</f>
+        <v>29.635808915852095</v>
+      </c>
+      <c r="AE2" s="9">
+        <f>Calculation!AE10</f>
+        <v>29.635808915852095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="K4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8C358A-F8CB-4F83-9D65-604F122A7677}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AAA4A26-43C2-4A71-ACEF-6B705157DA0E}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A051AF42-8D71-4A1E-BC55-AEB26D004601}"/>
 </file>
--- a/InputData/ccs/CCSTaSC/CCS Transportation and Storage Cost.xlsx
+++ b/InputData/ccs/CCSTaSC/CCS Transportation and Storage Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CCSTaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ccs\CCSTaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB69C57-C5D6-459F-AF6B-9308998FBC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7C928A-3AAF-49BE-9925-7B059DEE51E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21525" yWindow="2850" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>Value from study (2021 $)</t>
   </si>
   <si>
-    <t>2021 to 2012 $</t>
+    <t>2018 to 2012 $</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,7 +137,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +445,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -501,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,12 +508,15 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.84699999999999998</v>
+        <v>0.9143273584567535</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{E6E6B16C-F4E4-4E8F-9F7E-3FD9DA689F40}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -525,8 +527,8 @@
   </sheetPr>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,125 +633,125 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="C2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="D2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="E2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="F2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="G2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="H2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="I2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="J2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="K2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="L2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="M2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="N2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="O2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="P2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Q2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="R2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="S2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="T2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="U2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="V2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="W2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="X2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Y2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Z2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AA2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AB2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AC2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AD2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AE2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
+      <c r="B2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="C2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="D2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="E2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="F2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="G2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="H2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="I2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="J2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="K2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="L2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="M2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="N2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="O2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="P2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="Q2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="R2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="S2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="T2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="U2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="V2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="W2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="X2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="Y2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="Z2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="AA2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="AB2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="AC2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="AD2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
+      </c>
+      <c r="AE2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>21.02952924450533</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
